--- a/data/trans_dic/P79_n_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P79_n_R2-Provincia-trans_dic.xlsx
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001081419333704699</v>
+        <v>0.0008015761699674938</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01509722928212116</v>
+        <v>0.01462034479535609</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06762633774866728</v>
+        <v>0.05106279861858452</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02553351223623689</v>
+        <v>0.02778261236932915</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.03711891712816433</v>
+        <v>0.03711891712816432</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.03175485887158601</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.03439742890049648</v>
+        <v>0.03439742890049649</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02057993132357954</v>
+        <v>0.01905891665750102</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01994110556374055</v>
+        <v>0.02019590734354114</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02329722850736692</v>
+        <v>0.02333542184147258</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06653414617489779</v>
+        <v>0.06764494423784992</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04813930392961246</v>
+        <v>0.04833866052848285</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05199243102078156</v>
+        <v>0.05193907965153294</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.02336156770133638</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02455911210112504</v>
+        <v>0.02455911210112503</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.02399630668641728</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008741180980685301</v>
+        <v>0.01056094592562466</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01314471241496878</v>
+        <v>0.01226357663558244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01421609841472821</v>
+        <v>0.01422417250409474</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04419554905637512</v>
+        <v>0.05142928485119554</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04676895590157026</v>
+        <v>0.04270615303050964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03867747438915942</v>
+        <v>0.03738781743315379</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005573532806065056</v>
+        <v>0.004397065193897727</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01632395191728545</v>
+        <v>0.01809527943803068</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01438186376565134</v>
+        <v>0.0143423038720102</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03405313156737474</v>
+        <v>0.03517412006532381</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06244892488036353</v>
+        <v>0.0657396001446352</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04519505435138327</v>
+        <v>0.04211874233327222</v>
       </c>
     </row>
     <row r="16">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001220116915604307</v>
+        <v>0.001240013883441215</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01953848140252119</v>
+        <v>0.0194208813782976</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01312808007614612</v>
+        <v>0.01367281647504051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01063205952183554</v>
+        <v>0.01069952322902374</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.02422726970529714</v>
+        <v>0.02422726970529715</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.02928930565801138</v>
+        <v>0.02928930565801136</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.0267253430447214</v>
+        <v>0.02672534304472139</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009921224418711017</v>
+        <v>0.009821095105984791</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01407056711044661</v>
+        <v>0.01607583750397235</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01514995165621301</v>
+        <v>0.01630149089549889</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04859031550709617</v>
+        <v>0.05600713228216352</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05399650650781723</v>
+        <v>0.05621861077361824</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04319266250366292</v>
+        <v>0.04176239034106782</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.005766720723946486</v>
+        <v>0.004647615100299558</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01136766917875785</v>
+        <v>0.01138574097095748</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01021749731271713</v>
+        <v>0.009911362248942849</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02284830574625857</v>
+        <v>0.02076343226207911</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0286915093975441</v>
+        <v>0.02848876627433257</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02208251470009363</v>
+        <v>0.02161511288438564</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.098357289336488</v>
+        <v>0.09930557825425101</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08493196326147184</v>
+        <v>0.08506855628319757</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09770246197178706</v>
+        <v>0.0977105109873397</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.149036861083763</v>
+        <v>0.1485091899741075</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1239566336792943</v>
+        <v>0.1243981178011299</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1281202979775263</v>
+        <v>0.1280651705068376</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.04152075883530864</v>
+        <v>0.04152075883530863</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.04045910578292512</v>
+        <v>0.04045910578292511</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.04097502241913239</v>
+        <v>0.04097502241913237</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03464574535480461</v>
+        <v>0.03472594801607191</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03506075438050197</v>
+        <v>0.03443670564577304</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03652493271258254</v>
+        <v>0.03653239970017463</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04905539762495405</v>
+        <v>0.0489466009003074</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04737220145009059</v>
+        <v>0.04674736615273024</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04621879951915979</v>
+        <v>0.0461239848764024</v>
       </c>
     </row>
     <row r="31">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>687</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4814</v>
+        <v>4662</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21374</v>
+        <v>16139</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16211</v>
+        <v>17639</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10921</v>
+        <v>10114</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10898</v>
+        <v>11037</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25094</v>
+        <v>25136</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35306</v>
+        <v>35896</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26308</v>
+        <v>26417</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>56003</v>
+        <v>55946</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2762</v>
+        <v>3337</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4685</v>
+        <v>4371</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9559</v>
+        <v>9564</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13965</v>
+        <v>16251</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16668</v>
+        <v>15220</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26006</v>
+        <v>25139</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2080</v>
+        <v>1641</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6888</v>
+        <v>7636</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11435</v>
+        <v>11404</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12707</v>
+        <v>13125</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26351</v>
+        <v>27740</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>35935</v>
+        <v>33489</v>
       </c>
     </row>
     <row r="20">
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4018</v>
+        <v>3994</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3005</v>
+        <v>3130</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4621</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2686</v>
+        <v>2659</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3711</v>
+        <v>4240</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>8097</v>
+        <v>8712</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13154</v>
+        <v>15162</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14242</v>
+        <v>14828</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>23085</v>
+        <v>22320</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4150</v>
+        <v>3345</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8776</v>
+        <v>8790</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>15242</v>
+        <v>14785</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>16444</v>
+        <v>14943</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>22151</v>
+        <v>21995</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>32941</v>
+        <v>32244</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>78496</v>
+        <v>79253</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>70607</v>
+        <v>70720</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>159197</v>
+        <v>159210</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>118942</v>
+        <v>118521</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>103049</v>
+        <v>103416</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>208760</v>
+        <v>208670</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>122395</v>
+        <v>122679</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>131020</v>
+        <v>128688</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>265526</v>
+        <v>265580</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>173301</v>
+        <v>172917</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>177028</v>
+        <v>174693</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>335998</v>
+        <v>335308</v>
       </c>
     </row>
     <row r="40">
